--- a/ДЗ.xlsx
+++ b/ДЗ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\КУРСЫ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Margo\Documents\GitHub\MyFirstRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>passed</t>
   </si>
@@ -757,10 +757,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -768,15 +777,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2021,9 +2021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2142,7 +2142,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="8">
         <f>COUNTIF(L$8:L$44,"passed")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="8">
@@ -2322,65 +2322,65 @@
     </row>
     <row r="6" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="49" t="s">
+      <c r="F6" s="54"/>
+      <c r="G6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="49" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="15"/>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="6"/>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="53" t="s">
+      <c r="P6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="Q6" s="6"/>
-      <c r="R6" s="53" t="s">
+      <c r="R6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="S6" s="6"/>
-      <c r="T6" s="53" t="s">
+      <c r="T6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="U6" s="6"/>
-      <c r="V6" s="53" t="s">
+      <c r="V6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="6"/>
-      <c r="X6" s="53" t="s">
+      <c r="X6" s="47" t="s">
         <v>19</v>
       </c>
       <c r="Y6" s="6"/>
-      <c r="Z6" s="53"/>
+      <c r="Z6" s="47"/>
       <c r="AA6" s="6"/>
-      <c r="AB6" s="53"/>
+      <c r="AB6" s="47"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="53"/>
+      <c r="AD6" s="47"/>
       <c r="AE6" s="6"/>
     </row>
     <row r="7" spans="1:31" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3190,7 +3190,9 @@
       <c r="I26" s="19"/>
       <c r="J26" s="18"/>
       <c r="K26" s="20"/>
-      <c r="L26" s="22"/>
+      <c r="L26" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="22"/>
       <c r="O26" s="6"/>
@@ -3231,7 +3233,9 @@
       <c r="I27" s="19"/>
       <c r="J27" s="18"/>
       <c r="K27" s="20"/>
-      <c r="L27" s="22"/>
+      <c r="L27" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="M27" s="6"/>
       <c r="N27" s="22"/>
       <c r="O27" s="6"/>
@@ -5308,6 +5312,16 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L6:L7"/>
@@ -5316,18 +5330,8 @@
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="V6:V7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="L8:L10 V8:V10 L12:L44 N8:N44 P8:P44 R8:R44 T8:T44 V12:V44 X8:X44 Z8:Z44 AB8:AB44 AD8:AD44">
       <formula1>Result</formula1>
     </dataValidation>
